--- a/biology/Zoologie/Eirenis_lineomaculatus/Eirenis_lineomaculatus.xlsx
+++ b/biology/Zoologie/Eirenis_lineomaculatus/Eirenis_lineomaculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eirenis lineomaculatus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eirenis lineomaculatus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] en Israël, en Jordanie, au Liban, en Syrie et en Turquie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Israël, en Jordanie, au Liban, en Syrie et en Turquie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Schmidt indique que le spécimen en sa possession mesure 217 mm dont 45 mm pour la queue. Son dos est brun clair et présente quatre rangées de taches brun foncé, les médianes plus marquées que les deux latérales. Sa nuque est marquée d'un collier.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Schmidt indique que le spécimen en sa possession mesure 217 mm dont 45 mm pour la queue. Son dos est brun clair et présente quatre rangées de taches brun foncé, les médianes plus marquées que les deux latérales. Sa nuque est marquée d'un collier.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Schmidt, 1939 : Reptiles and amphibians from Southwestern Asia. Zoological Series of Field Museum of Natural History, vol. 24, p. 49-92 (texte intégral).</t>
         </is>
